--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.2467225412557</v>
+        <v>273.4901751550012</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.4526529519268</v>
+        <v>374.2013231820587</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.8192769510136</v>
+        <v>338.488074092418</v>
       </c>
       <c r="AD2" t="n">
-        <v>242246.7225412557</v>
+        <v>273490.1751550012</v>
       </c>
       <c r="AE2" t="n">
-        <v>331452.6529519268</v>
+        <v>374201.3231820588</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.577669700142276e-06</v>
+        <v>6.048228138469768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.663888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>299819.2769510137</v>
+        <v>338488.074092418</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.12814420231027</v>
+        <v>109.542717915442</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.6315001226195</v>
+        <v>149.8811793354845</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.687020110959</v>
+        <v>135.5767299393031</v>
       </c>
       <c r="AD3" t="n">
-        <v>99128.14420231027</v>
+        <v>109542.717915442</v>
       </c>
       <c r="AE3" t="n">
-        <v>135631.5001226195</v>
+        <v>149881.1793354845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26923738761679e-06</v>
+        <v>1.059845685950904e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.231944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>122687.020110959</v>
+        <v>135576.7299393031</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.01674678530189</v>
+        <v>108.4313204984336</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.1108371452759</v>
+        <v>148.3605163581408</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.3114870739087</v>
+        <v>134.2011969022527</v>
       </c>
       <c r="AD4" t="n">
-        <v>98016.74678530189</v>
+        <v>108431.3204984336</v>
       </c>
       <c r="AE4" t="n">
-        <v>134110.8371452759</v>
+        <v>148360.5163581409</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.338532490681852e-06</v>
+        <v>1.07156036694003e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.197222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>121311.4870739087</v>
+        <v>134201.1969022527</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.037952642433</v>
+        <v>168.1338369841324</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.552057778824</v>
+        <v>230.0481333029697</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.2207736680692</v>
+        <v>208.0926623351835</v>
       </c>
       <c r="AD2" t="n">
-        <v>148037.952642433</v>
+        <v>168133.8369841324</v>
       </c>
       <c r="AE2" t="n">
-        <v>202552.057778824</v>
+        <v>230048.1333029697</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.831556505733346e-06</v>
+        <v>8.367246108775452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.338888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>183220.7736680692</v>
+        <v>208092.6623351835</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.92000445562743</v>
+        <v>114.9305479427552</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.8737376711879</v>
+        <v>157.253046073136</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.4787704268198</v>
+        <v>142.2450360619953</v>
       </c>
       <c r="AD3" t="n">
-        <v>94920.00445562744</v>
+        <v>114930.5479427552</v>
       </c>
       <c r="AE3" t="n">
-        <v>129873.7376711879</v>
+        <v>157253.046073136</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344483382821486e-06</v>
+        <v>1.098731926949617e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.304166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>117478.7704268198</v>
+        <v>142245.0360619953</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.3228514657314</v>
+        <v>122.4683313451413</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.7391277747389</v>
+        <v>167.5665738678094</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.1163057555804</v>
+        <v>151.5742552390756</v>
       </c>
       <c r="AD2" t="n">
-        <v>104322.8514657314</v>
+        <v>122468.3313451413</v>
       </c>
       <c r="AE2" t="n">
-        <v>142739.1277747389</v>
+        <v>167566.5738678093</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.780821486578852e-06</v>
+        <v>1.093855822596163e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129116.3057555804</v>
+        <v>151574.2552390756</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.60151588388396</v>
+        <v>111.5947774418286</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7014793228332</v>
+        <v>152.6888977099623</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6092679629385</v>
+        <v>138.1164836127791</v>
       </c>
       <c r="AD2" t="n">
-        <v>92601.51588388396</v>
+        <v>111594.7774418286</v>
       </c>
       <c r="AE2" t="n">
-        <v>126701.4793228332</v>
+        <v>152688.8977099623</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.154278668996485e-06</v>
+        <v>1.121175918079514e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.636111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>114609.2679629385</v>
+        <v>138116.4836127791</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.01711072215649</v>
+        <v>112.0103722801012</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.2701145153076</v>
+        <v>153.2575329024367</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.1236334107278</v>
+        <v>138.6308490605684</v>
       </c>
       <c r="AD3" t="n">
-        <v>93017.11072215649</v>
+        <v>112010.3722801011</v>
       </c>
       <c r="AE3" t="n">
-        <v>127270.1145153076</v>
+        <v>153257.5329024367</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15202323323915e-06</v>
+        <v>1.120765026666905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.637500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>115123.6334107278</v>
+        <v>138630.8490605684</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0244643919119</v>
+        <v>127.7151051806179</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5403261177449</v>
+        <v>174.7454413008301</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.172968677783</v>
+        <v>158.0679816398949</v>
       </c>
       <c r="AD2" t="n">
-        <v>110024.4643919119</v>
+        <v>127715.1051806179</v>
       </c>
       <c r="AE2" t="n">
-        <v>150540.3261177449</v>
+        <v>174745.4413008301</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.277871437298517e-06</v>
+        <v>1.03429274844597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.602777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>136172.968677783</v>
+        <v>158067.9816398949</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.208159498479</v>
+        <v>184.6449133330825</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.6768481784338</v>
+        <v>252.6393163808713</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.2340051242856</v>
+        <v>228.527774607062</v>
       </c>
       <c r="AD2" t="n">
-        <v>164208.159498479</v>
+        <v>184644.9133330825</v>
       </c>
       <c r="AE2" t="n">
-        <v>224676.8481784338</v>
+        <v>252639.3163808713</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.497410851561343e-06</v>
+        <v>7.737710851570307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>203234.0051242856</v>
+        <v>228527.774607062</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.23229740165375</v>
+        <v>104.4080934002207</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9327865404476</v>
+        <v>142.8557595501159</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6276223513639</v>
+        <v>129.2218063580092</v>
       </c>
       <c r="AD3" t="n">
-        <v>94232.29740165375</v>
+        <v>104408.0934002207</v>
       </c>
       <c r="AE3" t="n">
-        <v>128932.7865404476</v>
+        <v>142855.7595501159</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.421945547377624e-06</v>
+        <v>1.104883662849847e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.234722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>116627.6223513639</v>
+        <v>129221.8063580092</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9010453473596</v>
+        <v>142.136085821753</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.8951204894101</v>
+        <v>194.4768632227857</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5851300427563</v>
+        <v>175.9162643468499</v>
       </c>
       <c r="AD2" t="n">
-        <v>124901.0453473596</v>
+        <v>142136.085821753</v>
       </c>
       <c r="AE2" t="n">
-        <v>170895.1204894101</v>
+        <v>194476.8632227857</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.878636836999183e-06</v>
+        <v>9.780009958983326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.095833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>154585.1300427563</v>
+        <v>175916.2643468499</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2089960502593</v>
+        <v>120.837499538889</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4786134216866</v>
+        <v>165.3351978432745</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2624089127126</v>
+        <v>149.5558386105658</v>
       </c>
       <c r="AD2" t="n">
-        <v>101208.9960502593</v>
+        <v>120837.499538889</v>
       </c>
       <c r="AE2" t="n">
-        <v>138478.6134216866</v>
+        <v>165335.1978432745</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.918712601602519e-06</v>
+        <v>1.048247981862272e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.648611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>125262.4089127126</v>
+        <v>149555.8386105658</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.86697530393218</v>
+        <v>112.3248865919696</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.064692612586</v>
+        <v>153.6878652593271</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.9378166860905</v>
+        <v>139.0201111012926</v>
       </c>
       <c r="AD3" t="n">
-        <v>92866.97530393218</v>
+        <v>112324.8865919696</v>
       </c>
       <c r="AE3" t="n">
-        <v>127064.692612586</v>
+        <v>153687.8652593271</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.326095420890542e-06</v>
+        <v>1.120398506293617e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.413888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>114937.8166860905</v>
+        <v>139020.1111012926</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1412016706519</v>
+        <v>153.0603337122823</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.1696659009732</v>
+        <v>209.4239011304035</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7836486641673</v>
+        <v>189.4367779348688</v>
       </c>
       <c r="AD2" t="n">
-        <v>133141.2016706519</v>
+        <v>153060.3337122823</v>
       </c>
       <c r="AE2" t="n">
-        <v>182169.6659009732</v>
+        <v>209423.9011304035</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20606507590052e-06</v>
+        <v>9.078922902910244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.063888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>164783.6486641673</v>
+        <v>189436.7779348688</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.06634422070543</v>
+        <v>113.9001354077642</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.7057220769366</v>
+        <v>155.8431901841693</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.4222286015633</v>
+        <v>140.969734840326</v>
       </c>
       <c r="AD3" t="n">
-        <v>94066.34422070543</v>
+        <v>113900.1354077642</v>
       </c>
       <c r="AE3" t="n">
-        <v>128705.7220769366</v>
+        <v>155843.1901841693</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.351271419560365e-06</v>
+        <v>1.107606276774626e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.331944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>116422.2286015633</v>
+        <v>140969.734840326</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9861937324707</v>
+        <v>246.8278775034262</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.5218389029993</v>
+        <v>337.7207912774583</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.31764936569</v>
+        <v>305.4891929521457</v>
       </c>
       <c r="AD2" t="n">
-        <v>215986.1937324707</v>
+        <v>246827.8775034262</v>
       </c>
       <c r="AE2" t="n">
-        <v>295521.8389029993</v>
+        <v>337720.7912774583</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.868166897168263e-06</v>
+        <v>6.575627357091648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.280555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>267317.6493656901</v>
+        <v>305489.1929521458</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.03145142251017</v>
+        <v>107.3689662549104</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.7627125617414</v>
+        <v>146.9069564143917</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.0920256085215</v>
+        <v>132.8863626794503</v>
       </c>
       <c r="AD3" t="n">
-        <v>97031.45142251017</v>
+        <v>107368.9662549104</v>
       </c>
       <c r="AE3" t="n">
-        <v>132762.7125617414</v>
+        <v>146906.9564143917</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.341999693635159e-06</v>
+        <v>1.078097915440595e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.220833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>120092.0256085215</v>
+        <v>132886.3626794503</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.29489281664783</v>
+        <v>107.6324076490481</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.1231646994143</v>
+        <v>147.2674085520647</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.4180767000729</v>
+        <v>133.2124137710016</v>
       </c>
       <c r="AD4" t="n">
-        <v>97294.89281664783</v>
+        <v>107632.4076490481</v>
       </c>
       <c r="AE4" t="n">
-        <v>133123.1646994143</v>
+        <v>147267.4085520647</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.341411491103752e-06</v>
+        <v>1.077997924908649e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.220833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>120418.0767000729</v>
+        <v>133212.4137710017</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.60572332354589</v>
+        <v>111.8220160458536</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7072361273977</v>
+        <v>152.9998155930488</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6144753461551</v>
+        <v>138.3977279294799</v>
       </c>
       <c r="AD2" t="n">
-        <v>92605.72332354588</v>
+        <v>111822.0160458536</v>
       </c>
       <c r="AE2" t="n">
-        <v>126707.2361273977</v>
+        <v>152999.8155930488</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.217251332223754e-06</v>
+        <v>1.121117540199699e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.554166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114614.4753461551</v>
+        <v>138397.7279294799</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.68105601904968</v>
+        <v>111.8973487413574</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.8103096448299</v>
+        <v>153.102889110481</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.7077116717483</v>
+        <v>138.490964255073</v>
       </c>
       <c r="AD3" t="n">
-        <v>92681.05601904968</v>
+        <v>111897.3487413574</v>
       </c>
       <c r="AE3" t="n">
-        <v>126810.3096448299</v>
+        <v>153102.889110481</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.231887270980812e-06</v>
+        <v>1.123756746302367e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.545833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>114707.7116717483</v>
+        <v>138490.964255073</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.523525227243</v>
+        <v>112.0269662261952</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9630131825978</v>
+        <v>153.2802374715558</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7504028017015</v>
+        <v>138.6513867374769</v>
       </c>
       <c r="AD2" t="n">
-        <v>93523.52522724299</v>
+        <v>112026.9662261952</v>
       </c>
       <c r="AE2" t="n">
-        <v>127963.0131825978</v>
+        <v>153280.2374715558</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952323549243373e-06</v>
+        <v>1.110513312589205e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>115750.4028017015</v>
+        <v>138651.3867374769</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.450178547168</v>
+        <v>124.2985724941325</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.6498305386061</v>
+        <v>170.0707905523987</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.7492151328621</v>
+        <v>153.8394729979787</v>
       </c>
       <c r="AD2" t="n">
-        <v>106450.1785471679</v>
+        <v>124298.5724941325</v>
       </c>
       <c r="AE2" t="n">
-        <v>145649.8305386061</v>
+        <v>170070.7905523987</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.567703610614606e-06</v>
+        <v>1.070690051374869e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.276388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>131749.2151328621</v>
+        <v>153839.4729979787</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.1005452473184</v>
+        <v>170.5381305385852</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.5870144564763</v>
+        <v>233.337793814116</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.6839730768314</v>
+        <v>211.0683622642146</v>
       </c>
       <c r="AD2" t="n">
-        <v>137100.5452473184</v>
+        <v>170538.1305385852</v>
       </c>
       <c r="AE2" t="n">
-        <v>187587.0144564763</v>
+        <v>233337.793814116</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273927455843715e-06</v>
+        <v>8.815399869976838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>169683.9730768314</v>
+        <v>211068.3622642146</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1476017690249</v>
+        <v>129.9680537093994</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.7088081095485</v>
+        <v>177.8280248709817</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.325370984755</v>
+        <v>160.8563677605453</v>
       </c>
       <c r="AD2" t="n">
-        <v>110147.6017690249</v>
+        <v>129968.0537093994</v>
       </c>
       <c r="AE2" t="n">
-        <v>150708.8081095485</v>
+        <v>177828.0248709817</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60362800486905e-06</v>
+        <v>9.845353353894125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.813888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>136325.370984755</v>
+        <v>160856.3677605453</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.57783767074854</v>
+        <v>113.2276974105309</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.037325863898</v>
+        <v>154.9231308504843</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8176231849969</v>
+        <v>140.1374846781362</v>
       </c>
       <c r="AD3" t="n">
-        <v>93577.83767074853</v>
+        <v>113227.6974105308</v>
       </c>
       <c r="AE3" t="n">
-        <v>128037.325863898</v>
+        <v>154923.1308504843</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.337125031043216e-06</v>
+        <v>1.113407869405595e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.372222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>115817.6231849969</v>
+        <v>140137.4846781362</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5765791529378</v>
+        <v>214.2649586156125</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.1775744240204</v>
+        <v>293.1667690805809</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.2055392510048</v>
+        <v>265.1873441017614</v>
       </c>
       <c r="AD2" t="n">
-        <v>183576.5791529378</v>
+        <v>214264.9586156125</v>
       </c>
       <c r="AE2" t="n">
-        <v>251177.5744240204</v>
+        <v>293166.7690805809</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.169903315946467e-06</v>
+        <v>7.130069966253835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.938888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>227205.5392510048</v>
+        <v>265187.3441017614</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.16554271229624</v>
+        <v>106.4235389932627</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.5779380632311</v>
+        <v>145.6133811256988</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.0203243253072</v>
+        <v>131.7162444007656</v>
       </c>
       <c r="AD3" t="n">
-        <v>96165.54271229624</v>
+        <v>106423.5389932627</v>
       </c>
       <c r="AE3" t="n">
-        <v>131577.9380632311</v>
+        <v>145613.3811256988</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.35293807470904e-06</v>
+        <v>1.086281612111481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.241666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119020.3243253072</v>
+        <v>131716.2444007656</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.323216247727</v>
+        <v>211.8749301147156</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.3579356519859</v>
+        <v>289.8966266450397</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.9413186354571</v>
+        <v>262.2292994705934</v>
       </c>
       <c r="AD2" t="n">
-        <v>179323.216247727</v>
+        <v>211874.9301147156</v>
       </c>
       <c r="AE2" t="n">
-        <v>245357.9356519859</v>
+        <v>289896.6266450397</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377784254001025e-06</v>
+        <v>7.240147431532321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.834722222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>221941.3186354571</v>
+        <v>262229.2994705934</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.83294203131901</v>
+        <v>111.5894299814775</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.0181267875547</v>
+        <v>152.6815810787966</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.8956950380446</v>
+        <v>138.1098652706229</v>
       </c>
       <c r="AD2" t="n">
-        <v>92832.94203131901</v>
+        <v>111589.4299814775</v>
       </c>
       <c r="AE2" t="n">
-        <v>127018.1267875547</v>
+        <v>152681.5810787966</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.071974405720799e-06</v>
+        <v>1.118720319741894e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.734722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>114895.6950380446</v>
+        <v>138109.8652706229</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.84017176083833</v>
+        <v>115.2677002426428</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.1327511730933</v>
+        <v>157.7143527239516</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.6176254471403</v>
+        <v>142.6623162535053</v>
       </c>
       <c r="AD2" t="n">
-        <v>95840.17176083833</v>
+        <v>115267.7002426428</v>
       </c>
       <c r="AE2" t="n">
-        <v>131132.7511730933</v>
+        <v>157714.3527239516</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.111873363229486e-06</v>
+        <v>1.091841572940034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.572222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>118617.6254471403</v>
+        <v>142662.3162535053</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.65858205332538</v>
+        <v>111.9155183345377</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.7795597734446</v>
+        <v>153.1277495494561</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.6798965249302</v>
+        <v>138.5134520486441</v>
       </c>
       <c r="AD3" t="n">
-        <v>92658.58205332537</v>
+        <v>111915.5183345377</v>
       </c>
       <c r="AE3" t="n">
-        <v>126779.5597734446</v>
+        <v>153127.7495494561</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.287805510511828e-06</v>
+        <v>1.123270567129464e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>114679.8965249302</v>
+        <v>138513.4520486441</v>
       </c>
     </row>
   </sheetData>
